--- a/vaccine-zip-codes/data/raw/zip/covid-19-vaccines-by-zip-code-data-dictionary.xlsx
+++ b/vaccine-zip-codes/data/raw/zip/covid-19-vaccines-by-zip-code-data-dictionary.xlsx
@@ -22,7 +22,7 @@
     <t>Zip Code Tabulation Area</t>
   </si>
   <si>
-    <t>Zip Code Tabulation Area from 2010 Census designations.</t>
+    <t>Zip Code Tabulation Area from 2010 Census designations. ZCTA vaccination metrics are based on the stated residence of individuals; however, there may be instances where providers erroneously enter administration ZIP code as the residence ZIP code. Vaccination records with missing ZIP codes are not included in this dataset.</t>
   </si>
   <si>
     <t>Local Health Jurisdiction</t>
@@ -34,7 +34,7 @@
     <t>Vaccine Equity Metric Quartile</t>
   </si>
   <si>
-    <t>Health equity metric score quartile, with 1 indicating least healthy community conditions and 4 indicating healthiest community conditions.</t>
+    <t>Health equity metric score quartile, with 1 indicating least healthy community conditions and 4 indicating healthiest community conditions. Note that some ZTCAs do not have a score.</t>
   </si>
   <si>
     <t>VEM Source</t>
@@ -201,7 +201,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -372,13 +372,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -468,19 +462,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -735,13 +729,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1045,19 +1033,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1331,7 +1319,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" ht="35.65" customHeight="1">
       <c r="A2" t="s" s="5">
         <v>2</v>
       </c>
@@ -1353,7 +1341,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" ht="24.65" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>6</v>
       </c>
